--- a/processing/final/benchmark_1mw/benchmark_1mw.xlsx
+++ b/processing/final/benchmark_1mw/benchmark_1mw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37420" yWindow="440" windowWidth="37120" windowHeight="20880" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="440" windowWidth="37120" windowHeight="20880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>BENCHMARK_1MW</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Hit/request ratio</t>
+  </si>
+  <si>
+    <t>Pure processing time</t>
+  </si>
+  <si>
+    <t>Average time in MW</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123132848"/>
-        <c:axId val="119106400"/>
+        <c:axId val="1274066272"/>
+        <c:axId val="1274069488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123132848"/>
+        <c:axId val="1274066272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,6 +1113,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1143,12 +1150,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119106400"/>
+        <c:crossAx val="1274069488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119106400"/>
+        <c:axId val="1274069488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123132848"/>
+        <c:crossAx val="1274066272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2200,11 +2207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124482944"/>
-        <c:axId val="124486336"/>
+        <c:axId val="1313895776"/>
+        <c:axId val="1313899808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124482944"/>
+        <c:axId val="1313895776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,12 +2323,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124486336"/>
+        <c:crossAx val="1313899808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124486336"/>
+        <c:axId val="1313899808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124482944"/>
+        <c:crossAx val="1313895776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3378,11 +3385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122820224"/>
-        <c:axId val="122823072"/>
+        <c:axId val="1274091344"/>
+        <c:axId val="1274095376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122820224"/>
+        <c:axId val="1274091344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +3435,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3495,12 +3501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122823072"/>
+        <c:crossAx val="1274095376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122823072"/>
+        <c:axId val="1274095376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,7 +3557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3617,7 +3622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122820224"/>
+        <c:crossAx val="1274091344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3631,7 +3636,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3995,11 +3999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122869552"/>
-        <c:axId val="123687648"/>
+        <c:axId val="1274126672"/>
+        <c:axId val="1274130432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122869552"/>
+        <c:axId val="1274126672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4124,12 +4128,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123687648"/>
+        <c:crossAx val="1274130432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123687648"/>
+        <c:axId val="1274130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4241,7 +4245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122869552"/>
+        <c:crossAx val="1274126672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4362,7 +4366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5174,11 +5177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123100544"/>
-        <c:axId val="113588592"/>
+        <c:axId val="1163834624"/>
+        <c:axId val="1163838656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123100544"/>
+        <c:axId val="1163834624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,7 +5227,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5291,12 +5293,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113588592"/>
+        <c:crossAx val="1163838656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113588592"/>
+        <c:axId val="1163838656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,7 +5344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5408,7 +5409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123100544"/>
+        <c:crossAx val="1163834624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5422,7 +5423,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6341,11 +6341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121429456"/>
-        <c:axId val="120780400"/>
+        <c:axId val="1163875296"/>
+        <c:axId val="1163879328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121429456"/>
+        <c:axId val="1163875296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,12 +6457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120780400"/>
+        <c:crossAx val="1163879328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120780400"/>
+        <c:axId val="1163879328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6574,7 +6574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121429456"/>
+        <c:crossAx val="1163875296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6695,7 +6695,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7507,11 +7506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145520704"/>
-        <c:axId val="145524096"/>
+        <c:axId val="1312829952"/>
+        <c:axId val="1312833984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145520704"/>
+        <c:axId val="1312829952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,7 +7556,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7623,12 +7621,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145524096"/>
+        <c:crossAx val="1312833984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145524096"/>
+        <c:axId val="1312833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7674,7 +7672,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7740,7 +7737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145520704"/>
+        <c:crossAx val="1312829952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7754,7 +7751,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8781,11 +8777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125610752"/>
-        <c:axId val="91175328"/>
+        <c:axId val="1165801392"/>
+        <c:axId val="1165805152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125610752"/>
+        <c:axId val="1165801392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8897,12 +8893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91175328"/>
+        <c:crossAx val="1165805152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91175328"/>
+        <c:axId val="1165805152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9014,7 +9010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125610752"/>
+        <c:crossAx val="1165801392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9135,7 +9131,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9947,11 +9942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125494784"/>
-        <c:axId val="125496560"/>
+        <c:axId val="1165847504"/>
+        <c:axId val="1165851536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125494784"/>
+        <c:axId val="1165847504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,7 +9992,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10063,12 +10057,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125496560"/>
+        <c:crossAx val="1165851536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125496560"/>
+        <c:axId val="1165851536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10114,7 +10108,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10180,7 +10173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125494784"/>
+        <c:crossAx val="1165847504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10194,7 +10187,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10301,7 +10293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11113,11 +11104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-333801984"/>
-        <c:axId val="-333799440"/>
+        <c:axId val="1165888496"/>
+        <c:axId val="1165892528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-333801984"/>
+        <c:axId val="1165888496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +11154,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11229,12 +11219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-333799440"/>
+        <c:crossAx val="1165892528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-333799440"/>
+        <c:axId val="1165892528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11280,7 +11270,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11346,7 +11335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-333801984"/>
+        <c:crossAx val="1165888496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11360,7 +11349,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11467,7 +11455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12387,11 +12374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-334052240"/>
-        <c:axId val="-334049696"/>
+        <c:axId val="1165944432"/>
+        <c:axId val="1165948464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-334052240"/>
+        <c:axId val="1165944432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12437,7 +12424,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12504,12 +12490,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-334049696"/>
+        <c:crossAx val="1165948464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-334049696"/>
+        <c:axId val="1165948464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12555,7 +12541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12621,7 +12606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-334052240"/>
+        <c:crossAx val="1165944432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12635,7 +12620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13561,11 +13545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124642624"/>
-        <c:axId val="91777152"/>
+        <c:axId val="1165989232"/>
+        <c:axId val="1165993264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124642624"/>
+        <c:axId val="1165989232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13677,12 +13661,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91777152"/>
+        <c:crossAx val="1165993264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91777152"/>
+        <c:axId val="1165993264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13799,7 +13783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124642624"/>
+        <c:crossAx val="1165989232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21202,8 +21186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AE76" sqref="AE76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21287,11 +21271,17 @@
       <c r="X4" t="s">
         <v>23</v>
       </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA4" t="s">
         <v>27</v>
       </c>
       <c r="AB4" t="s">
         <v>28</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
       </c>
       <c r="AE4" t="s">
         <v>29</v>
@@ -21379,6 +21369,10 @@
       <c r="X5">
         <v>3.30980619083E-3</v>
       </c>
+      <c r="Z5">
+        <f>K5-O5-Q5</f>
+        <v>3.561837499999998E-2</v>
+      </c>
       <c r="AA5">
         <f>K5-O5</f>
         <v>0.76849770833300002</v>
@@ -21386,6 +21380,10 @@
       <c r="AB5">
         <f>G5-K5</f>
         <v>0.78360445833699999</v>
+      </c>
+      <c r="AC5">
+        <f>K5-Q5</f>
+        <v>0.17955787499999998</v>
       </c>
       <c r="AE5" s="1">
         <v>6.9444444444444447E-4</v>
@@ -21473,13 +21471,21 @@
       <c r="X6">
         <v>1.4576604393000001E-2</v>
       </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z69" si="0">K6-O6-Q6</f>
+        <v>3.2892375000999952E-2</v>
+      </c>
       <c r="AA6">
-        <f t="shared" ref="AA6:AA69" si="0">K6-O6</f>
+        <f t="shared" ref="AA6:AA69" si="1">K6-O6</f>
         <v>0.81971883333399997</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB69" si="1">G6-K6</f>
+        <f t="shared" ref="AB6:AB69" si="2">G6-K6</f>
         <v>0.87902441666300002</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC69" si="3">K6-Q6</f>
+        <v>0.209732458334</v>
       </c>
       <c r="AE6" s="1">
         <v>6.9444444444444447E-4</v>
@@ -21567,13 +21573,21 @@
       <c r="X7">
         <v>2.5614793083799998E-2</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>3.1145291663000063E-2</v>
+      </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98874233333000006</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0836387499999998</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>0.34672254166300009</v>
       </c>
       <c r="AE7" s="1">
         <v>6.9444444444444447E-4</v>
@@ -21661,13 +21675,21 @@
       <c r="X8">
         <v>3.2382006162499997E-2</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>3.3524583339999969E-2</v>
+      </c>
       <c r="AA8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.12248279167</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2778979583300001</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>2.2857271666700001</v>
       </c>
       <c r="AE8" s="1">
         <v>6.9444444444444447E-4</v>
@@ -21755,13 +21777,21 @@
       <c r="X9">
         <v>0.13698708435699999</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>3.4569333340000563E-2</v>
+      </c>
       <c r="AA9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1273750833400005</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3538463333299999</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>4.5254729166700001</v>
       </c>
       <c r="AE9" s="1">
         <v>6.9444444444444447E-4</v>
@@ -21849,13 +21879,21 @@
       <c r="X10">
         <v>0.27980444930100001</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>3.3395624999999818E-2</v>
+      </c>
       <c r="AA10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1378202499999999</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4133192500000007</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>6.8361311249999996</v>
       </c>
       <c r="AE10" s="1">
         <v>6.9444444444444447E-4</v>
@@ -21943,13 +21981,21 @@
       <c r="X11">
         <v>9.3246903907799994E-2</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>3.5663333330000269E-2</v>
+      </c>
       <c r="AA11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1359935833300003</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.509718874999999</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>9.0717008749999994</v>
       </c>
       <c r="AE11" s="1">
         <v>6.9444444444444447E-4</v>
@@ -22037,13 +22083,21 @@
       <c r="X12">
         <v>0.27371491159599998</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>3.467104170000046E-2</v>
+      </c>
       <c r="AA12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1209591667000005</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5116210832999997</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>11.223049125000001</v>
       </c>
       <c r="AE12" s="1">
         <v>6.9444444444444447E-4</v>
@@ -22131,13 +22185,21 @@
       <c r="X13">
         <v>0.27053018552399999</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>3.4222666599998952E-2</v>
+      </c>
       <c r="AA13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.112779291599999</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5503199166999995</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>13.380623458300001</v>
       </c>
       <c r="AE13" s="1">
         <v>6.9444444444444447E-4</v>
@@ -22225,13 +22287,21 @@
       <c r="X14">
         <v>6.1906265598199997E-3</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>3.6963500000000038E-2</v>
+      </c>
       <c r="AA14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77544116666700003</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77366087500000003</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>0.18486145833300005</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -22304,13 +22374,21 @@
       <c r="X15">
         <v>1.9420062872600001E-2</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>3.4203541670000059E-2</v>
+      </c>
       <c r="AA15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82374458333700007</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89037154165999999</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>0.21254575000300002</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
@@ -22383,16 +22461,24 @@
       <c r="X16">
         <v>2.0728777230099998E-2</v>
       </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>3.4464583332999732E-2</v>
+      </c>
       <c r="AA16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0380488333329998</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1049160000000002</v>
       </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>0.28224974999999985</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22462,16 +22548,24 @@
       <c r="X17">
         <v>4.39869876235E-2</v>
       </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>3.5347375003000225E-2</v>
+      </c>
       <c r="AA17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4120276250030002</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4655584166599998</v>
       </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>0.54934466667000015</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22541,16 +22635,24 @@
       <c r="X18">
         <v>3.7878920386799998E-2</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>3.5713083330000117E-2</v>
+      </c>
       <c r="AA18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.47756333333</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6049619583299997</v>
       </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>1.5906461250000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22620,16 +22722,24 @@
       <c r="X19">
         <v>1.29115035103E-2</v>
       </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>3.4178000000000486E-2</v>
+      </c>
       <c r="AA19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4666992500000005</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6415894166599996</v>
       </c>
+      <c r="AC19">
+        <f t="shared" si="3"/>
+        <v>2.9977226666700005</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22699,16 +22809,24 @@
       <c r="X20">
         <v>4.0610786208899997E-2</v>
       </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>3.5696625009999705E-2</v>
+      </c>
       <c r="AA20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5094075833399998</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7140481666599996</v>
       </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>4.5819492083400002</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22778,16 +22896,24 @@
       <c r="X21">
         <v>9.7243957098299999E-2</v>
       </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>3.7826791659999914E-2</v>
+      </c>
       <c r="AA21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5137697083299999</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7967527500000005</v>
       </c>
+      <c r="AC21">
+        <f t="shared" si="3"/>
+        <v>6.0725543333299994</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22857,16 +22983,24 @@
       <c r="X22">
         <v>0.13606639303599999</v>
       </c>
+      <c r="Z22">
+        <f t="shared" si="0"/>
+        <v>3.5022041669999782E-2</v>
+      </c>
       <c r="AA22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5172334583399998</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8252306250300006</v>
       </c>
+      <c r="AC22">
+        <f t="shared" si="3"/>
+        <v>7.6060996249999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22936,16 +23070,24 @@
       <c r="X23">
         <v>5.3127041745099999E-3</v>
       </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>3.8746458334000033E-2</v>
+      </c>
       <c r="AA23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78255641666700004</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77361912500300012</v>
       </c>
+      <c r="AC23">
+        <f t="shared" si="3"/>
+        <v>0.18686258333399997</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23015,16 +23157,24 @@
       <c r="X24">
         <v>1.29281235843E-2</v>
       </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>3.6734208330000184E-2</v>
+      </c>
       <c r="AA24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83553658333000014</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88016866666999993</v>
       </c>
+      <c r="AC24">
+        <f t="shared" si="3"/>
+        <v>0.21840395833000015</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23094,16 +23244,24 @@
       <c r="X25">
         <v>4.3190920348200003E-3</v>
       </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>3.8192249997000105E-2</v>
+      </c>
       <c r="AA25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0345611249970001</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0816490000000001</v>
       </c>
+      <c r="AC25">
+        <f t="shared" si="3"/>
+        <v>0.29056545833000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23173,16 +23331,24 @@
       <c r="X26">
         <v>2.9141472703E-2</v>
       </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>3.8748958330000249E-2</v>
+      </c>
       <c r="AA26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5515670000000001</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5244833749999998</v>
       </c>
+      <c r="AC26">
+        <f t="shared" si="3"/>
+        <v>0.44657358333000019</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23252,16 +23418,24 @@
       <c r="X27">
         <v>2.66090417178E-2</v>
       </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>4.0676208329999852E-2</v>
+      </c>
       <c r="AA27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9650757499999998</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9529982499999998</v>
       </c>
+      <c r="AC27">
+        <f t="shared" si="3"/>
+        <v>0.62047720832999986</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23331,16 +23505,24 @@
       <c r="X28">
         <v>5.8755260673599999E-2</v>
       </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>3.9905166670000547E-2</v>
+      </c>
       <c r="AA28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4786730416700005</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.20342191667</v>
       </c>
+      <c r="AC28">
+        <f t="shared" si="3"/>
+        <v>1.1221018750000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23410,16 +23592,24 @@
       <c r="X29">
         <v>4.1786691453300003E-2</v>
       </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>3.6863874999999879E-2</v>
+      </c>
       <c r="AA29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7032729583299999</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2798348333299998</v>
       </c>
+      <c r="AC29">
+        <f t="shared" si="3"/>
+        <v>2.2514644166699997</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23489,16 +23679,24 @@
       <c r="X30">
         <v>0.104603005072</v>
       </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>3.8089124990000389E-2</v>
+      </c>
       <c r="AA30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7622394166600004</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3874436250000004</v>
       </c>
+      <c r="AC30">
+        <f t="shared" si="3"/>
+        <v>3.5318644166600004</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23568,16 +23766,24 @@
       <c r="X31">
         <v>2.62832850319E-2</v>
       </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>3.9030499999999968E-2</v>
+      </c>
       <c r="AA31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.78362279167</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4388497083300003</v>
       </c>
+      <c r="AC31">
+        <f t="shared" si="3"/>
+        <v>4.8936830000000002</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23647,16 +23853,24 @@
       <c r="X32">
         <v>3.0485275928500001E-3</v>
       </c>
+      <c r="Z32">
+        <f t="shared" si="0"/>
+        <v>4.0836916665999978E-2</v>
+      </c>
       <c r="AA32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.786003458333</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79430891666999992</v>
       </c>
+      <c r="AC32">
+        <f t="shared" si="3"/>
+        <v>0.18994120833299999</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23726,16 +23940,24 @@
       <c r="X33">
         <v>2.4587849207400002E-3</v>
       </c>
+      <c r="Z33">
+        <f t="shared" si="0"/>
+        <v>3.5535541664000081E-2</v>
+      </c>
       <c r="AA33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83589712499700008</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89250383333999994</v>
       </c>
+      <c r="AC33">
+        <f t="shared" si="3"/>
+        <v>0.21992624999700006</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23805,16 +24027,24 @@
       <c r="X34">
         <v>1.15480384881E-2</v>
       </c>
+      <c r="Z34">
+        <f t="shared" si="0"/>
+        <v>3.9381458330000063E-2</v>
+      </c>
       <c r="AA34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.050508875</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0912827500000002</v>
       </c>
+      <c r="AC34">
+        <f t="shared" si="3"/>
+        <v>0.30033983333000003</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23884,16 +24114,24 @@
       <c r="X35">
         <v>1.8595845030299998E-2</v>
       </c>
+      <c r="Z35">
+        <f t="shared" si="0"/>
+        <v>4.0846291667000045E-2</v>
+      </c>
       <c r="AA35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.557308291667</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5234017916700002</v>
       </c>
+      <c r="AC35">
+        <f t="shared" si="3"/>
+        <v>0.46392787499999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -23963,16 +24201,24 @@
       <c r="X36">
         <v>2.67282745956E-2</v>
       </c>
+      <c r="Z36">
+        <f t="shared" si="0"/>
+        <v>4.2456124996999911E-2</v>
+      </c>
       <c r="AA36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0215347916669999</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9555227500000001</v>
       </c>
+      <c r="AC36">
+        <f t="shared" si="3"/>
+        <v>0.62177358332999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -24042,16 +24288,24 @@
       <c r="X37">
         <v>4.0866901468400003E-2</v>
       </c>
+      <c r="Z37">
+        <f t="shared" si="0"/>
+        <v>4.2305916670000165E-2</v>
+      </c>
       <c r="AA37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3075414166700003</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2893312916599995</v>
       </c>
+      <c r="AC37">
+        <f t="shared" si="3"/>
+        <v>0.75476654167000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -24121,16 +24375,24 @@
       <c r="X38">
         <v>4.0324307863699997E-2</v>
       </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>4.2449833332999898E-2</v>
+      </c>
       <c r="AA38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7061734583329997</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7250069166700004</v>
       </c>
+      <c r="AC38">
+        <f t="shared" si="3"/>
+        <v>0.88431112499999998</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -24200,16 +24462,24 @@
       <c r="X39">
         <v>2.15231046684E-2</v>
       </c>
+      <c r="Z39">
+        <f t="shared" si="0"/>
+        <v>4.3458708339999763E-2</v>
+      </c>
       <c r="AA39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9918244583399995</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1221737500000009</v>
       </c>
+      <c r="AC39">
+        <f t="shared" si="3"/>
+        <v>1.0915021666699998</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -24279,16 +24549,24 @@
       <c r="X40">
         <v>2.51099603996E-2</v>
       </c>
+      <c r="Z40">
+        <f t="shared" si="0"/>
+        <v>4.7342208329999913E-2</v>
+      </c>
       <c r="AA40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3282090416600001</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4376804999999999</v>
       </c>
+      <c r="AC40">
+        <f t="shared" si="3"/>
+        <v>1.2599109999999998</v>
+      </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24358,16 +24636,24 @@
       <c r="X41">
         <v>7.7837171821599997E-3</v>
       </c>
+      <c r="Z41">
+        <f t="shared" si="0"/>
+        <v>3.6389666666999942E-2</v>
+      </c>
       <c r="AA41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77773587499999997</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78157975000000002</v>
       </c>
+      <c r="AC41">
+        <f t="shared" si="3"/>
+        <v>0.18182404166699995</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24437,16 +24723,24 @@
       <c r="X42">
         <v>9.5472510384199995E-3</v>
       </c>
+      <c r="Z42">
+        <f t="shared" si="0"/>
+        <v>3.3424750000000003E-2</v>
+      </c>
       <c r="AA42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82887808333299995</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88726366667000001</v>
       </c>
+      <c r="AC42">
+        <f t="shared" si="3"/>
+        <v>0.21169966666700002</v>
+      </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24516,16 +24810,24 @@
       <c r="X43">
         <v>1.6630241362399999E-2</v>
       </c>
+      <c r="Z43">
+        <f t="shared" si="0"/>
+        <v>3.2349291662999935E-2</v>
+      </c>
       <c r="AA43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99222033332999993</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0699506250000002</v>
       </c>
+      <c r="AC43">
+        <f t="shared" si="3"/>
+        <v>0.34563666666299997</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24595,16 +24897,24 @@
       <c r="X44">
         <v>1.15122183797E-2</v>
       </c>
+      <c r="Z44">
+        <f t="shared" si="0"/>
+        <v>3.2744291670000036E-2</v>
+      </c>
       <c r="AA44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.123542375</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2650729583300002</v>
       </c>
+      <c r="AC44">
+        <f t="shared" si="3"/>
+        <v>2.3018789583399997</v>
+      </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24674,16 +24984,24 @@
       <c r="X45">
         <v>0.188953482181</v>
       </c>
+      <c r="Z45">
+        <f t="shared" si="0"/>
+        <v>3.4040458330000245E-2</v>
+      </c>
       <c r="AA45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1068585833300002</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3152463750000001</v>
       </c>
+      <c r="AC45">
+        <f t="shared" si="3"/>
+        <v>4.4506855000000005</v>
+      </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24753,16 +25071,24 @@
       <c r="X46">
         <v>0.17365730628699999</v>
       </c>
+      <c r="Z46">
+        <f t="shared" si="0"/>
+        <v>3.4069291660000278E-2</v>
+      </c>
       <c r="AA46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1394263333300003</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4270077499999996</v>
       </c>
+      <c r="AC46">
+        <f t="shared" si="3"/>
+        <v>6.8466352083299995</v>
+      </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24832,16 +25158,24 @@
       <c r="X47">
         <v>0.23912632757300001</v>
       </c>
+      <c r="Z47">
+        <f t="shared" si="0"/>
+        <v>3.4839124999999749E-2</v>
+      </c>
       <c r="AA47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1143067916699998</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4511883332999993</v>
       </c>
+      <c r="AC47">
+        <f t="shared" si="3"/>
+        <v>8.9293023333299999</v>
+      </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24911,16 +25245,24 @@
       <c r="X48">
         <v>0.223471326035</v>
       </c>
+      <c r="Z48">
+        <f t="shared" si="0"/>
+        <v>3.5109749999999496E-2</v>
+      </c>
       <c r="AA48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1331497499999994</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5096670417000002</v>
       </c>
+      <c r="AC48">
+        <f t="shared" si="3"/>
+        <v>11.352209625</v>
+      </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -24990,16 +25332,24 @@
       <c r="X49">
         <v>0.468023396451</v>
       </c>
+      <c r="Z49">
+        <f t="shared" si="0"/>
+        <v>3.4230374999998814E-2</v>
+      </c>
       <c r="AA49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1322536249999988</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5510224583000021</v>
       </c>
+      <c r="AC49">
+        <f t="shared" si="3"/>
+        <v>13.611537624999999</v>
+      </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25069,16 +25419,24 @@
       <c r="X50">
         <v>1.9618203932100001E-3</v>
       </c>
+      <c r="Z50">
+        <f t="shared" si="0"/>
+        <v>3.7353083333999892E-2</v>
+      </c>
       <c r="AA50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78280266666699994</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78929300000300007</v>
       </c>
+      <c r="AC50">
+        <f t="shared" si="3"/>
+        <v>0.18529908333399991</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25148,16 +25506,24 @@
       <c r="X51">
         <v>1.9980025925299998E-2</v>
       </c>
+      <c r="Z51">
+        <f t="shared" si="0"/>
+        <v>3.4003958336999984E-2</v>
+      </c>
       <c r="AA51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83986941667000004</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88787791665999993</v>
       </c>
+      <c r="AC51">
+        <f t="shared" si="3"/>
+        <v>0.21208995833699995</v>
+      </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25227,16 +25593,24 @@
       <c r="X52">
         <v>1.4178116849400001E-3</v>
       </c>
+      <c r="Z52">
+        <f t="shared" si="0"/>
+        <v>3.5432166670000043E-2</v>
+      </c>
       <c r="AA52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.027828583337</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0909952499999997</v>
       </c>
+      <c r="AC52">
+        <f t="shared" si="3"/>
+        <v>0.27402500000300012</v>
+      </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25306,16 +25680,24 @@
       <c r="X53">
         <v>1.7399147056599999E-2</v>
       </c>
+      <c r="Z53">
+        <f t="shared" si="0"/>
+        <v>3.5894708332999903E-2</v>
+      </c>
       <c r="AA53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.391096333333</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4536427916700001</v>
       </c>
+      <c r="AC53">
+        <f t="shared" si="3"/>
+        <v>0.53644724999999993</v>
+      </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25385,16 +25767,24 @@
       <c r="X54">
         <v>2.2730202691800001E-2</v>
       </c>
+      <c r="Z54">
+        <f t="shared" si="0"/>
+        <v>3.6555625000000092E-2</v>
+      </c>
       <c r="AA54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.47154616667</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6060011250000001</v>
       </c>
+      <c r="AC54">
+        <f t="shared" si="3"/>
+        <v>1.5838000000000001</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25464,16 +25854,24 @@
       <c r="X55">
         <v>1.42489152495E-2</v>
       </c>
+      <c r="Z55">
+        <f t="shared" si="0"/>
+        <v>3.8087250000000239E-2</v>
+      </c>
       <c r="AA55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4777423333300002</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6679157916699996</v>
       </c>
+      <c r="AC55">
+        <f t="shared" si="3"/>
+        <v>3.0155541250000004</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25543,16 +25941,24 @@
       <c r="X56">
         <v>5.91320106981E-2</v>
       </c>
+      <c r="Z56">
+        <f t="shared" si="0"/>
+        <v>3.7050291669999735E-2</v>
+      </c>
       <c r="AA56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4969349999999997</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7328484583300003</v>
       </c>
+      <c r="AC56">
+        <f t="shared" si="3"/>
+        <v>4.53297516667</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25622,16 +26028,24 @@
       <c r="X57">
         <v>9.6803506664599998E-2</v>
       </c>
+      <c r="Z57">
+        <f t="shared" si="0"/>
+        <v>3.6896666670000355E-2</v>
+      </c>
       <c r="AA57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4886912916700004</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.77748866666</v>
       </c>
+      <c r="AC57">
+        <f t="shared" si="3"/>
+        <v>5.9713000416700002</v>
+      </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25701,16 +26115,24 @@
       <c r="X58">
         <v>0.15869795632600001</v>
       </c>
+      <c r="Z58">
+        <f t="shared" si="0"/>
+        <v>3.6993583330000579E-2</v>
+      </c>
       <c r="AA58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4834653750000006</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8003287917000002</v>
       </c>
+      <c r="AC58">
+        <f t="shared" si="3"/>
+        <v>7.4304910833300006</v>
+      </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25780,16 +26202,24 @@
       <c r="X59">
         <v>3.5631199555600001E-3</v>
       </c>
+      <c r="Z59">
+        <f t="shared" si="0"/>
+        <v>3.8663499999999962E-2</v>
+      </c>
       <c r="AA59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78651166666700001</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78930479166299994</v>
       </c>
+      <c r="AC59">
+        <f t="shared" si="3"/>
+        <v>0.18430537499999999</v>
+      </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25859,16 +26289,24 @@
       <c r="X60">
         <v>8.7794023904400002E-3</v>
       </c>
+      <c r="Z60">
+        <f t="shared" si="0"/>
+        <v>3.7911583336000088E-2</v>
+      </c>
       <c r="AA60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83597712500300003</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8877704583299999</v>
       </c>
+      <c r="AC60">
+        <f t="shared" si="3"/>
+        <v>0.21966400000300013</v>
+      </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -25938,16 +26376,24 @@
       <c r="X61">
         <v>0.16443680355400001</v>
       </c>
+      <c r="Z61">
+        <f t="shared" si="0"/>
+        <v>3.8891249996999999E-2</v>
+      </c>
       <c r="AA61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0730642916669999</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.09082920833</v>
       </c>
+      <c r="AC61">
+        <f t="shared" si="3"/>
+        <v>0.2935810833300001</v>
+      </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26017,16 +26463,24 @@
       <c r="X62">
         <v>3.0157543281699999E-2</v>
       </c>
+      <c r="Z62">
+        <f t="shared" si="0"/>
+        <v>4.0346541672999781E-2</v>
+      </c>
       <c r="AA62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4221915000029999</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5470520833300001</v>
       </c>
+      <c r="AC62">
+        <f t="shared" si="3"/>
+        <v>0.42397795833999985</v>
+      </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26096,16 +26550,24 @@
       <c r="X63">
         <v>1.3833022302499999E-2</v>
       </c>
+      <c r="Z63">
+        <f t="shared" si="0"/>
+        <v>3.7129708336999911E-2</v>
+      </c>
       <c r="AA63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8075288333369999</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0173058750000004</v>
       </c>
+      <c r="AC63">
+        <f t="shared" si="3"/>
+        <v>0.58746166666999988</v>
+      </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26175,16 +26637,24 @@
       <c r="X64">
         <v>3.3949965322699997E-2</v>
       </c>
+      <c r="Z64">
+        <f t="shared" si="0"/>
+        <v>4.0231458336999815E-2</v>
+      </c>
       <c r="AA64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1610595833369999</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4448929583299996</v>
       </c>
+      <c r="AC64">
+        <f t="shared" si="3"/>
+        <v>0.78002891667000007</v>
+      </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26254,16 +26724,24 @@
       <c r="X65">
         <v>3.2589953216099997E-2</v>
       </c>
+      <c r="Z65">
+        <f t="shared" si="0"/>
+        <v>4.0544124989999819E-2</v>
+      </c>
       <c r="AA65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2799021666599999</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7220557916699999</v>
       </c>
+      <c r="AC65">
+        <f t="shared" si="3"/>
+        <v>1.4163361666599998</v>
+      </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26333,16 +26811,24 @@
       <c r="X66">
         <v>4.09212676198E-2</v>
       </c>
+      <c r="Z66">
+        <f t="shared" si="0"/>
+        <v>4.0814458339999415E-2</v>
+      </c>
       <c r="AA66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3213347916699996</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8821370833300008</v>
       </c>
+      <c r="AC66">
+        <f t="shared" si="3"/>
+        <v>2.3148009166699994</v>
+      </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26412,16 +26898,24 @@
       <c r="X67">
         <v>4.5369710932100002E-2</v>
       </c>
+      <c r="Z67">
+        <f t="shared" si="0"/>
+        <v>4.0145833329999991E-2</v>
+      </c>
       <c r="AA67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.34417075</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9961429166699993</v>
       </c>
+      <c r="AC67">
+        <f t="shared" si="3"/>
+        <v>3.3432488333300001</v>
+      </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26491,16 +26985,24 @@
       <c r="X68">
         <v>6.5840546884599997E-3</v>
       </c>
+      <c r="Z68">
+        <f t="shared" si="0"/>
+        <v>3.8330291665999994E-2</v>
+      </c>
       <c r="AA68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72565808333299997</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80968774999999993</v>
       </c>
+      <c r="AC68">
+        <f t="shared" si="3"/>
+        <v>0.19098445833300004</v>
+      </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26570,16 +27072,24 @@
       <c r="X69">
         <v>8.4324088735899996E-3</v>
       </c>
+      <c r="Z69">
+        <f t="shared" si="0"/>
+        <v>3.7147624998999929E-2</v>
+      </c>
       <c r="AA69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76458129166599997</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87333170833700002</v>
       </c>
+      <c r="AC69">
+        <f t="shared" si="3"/>
+        <v>0.21577629166599999</v>
+      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26649,16 +27159,24 @@
       <c r="X70">
         <v>1.8095334863399998E-2</v>
       </c>
+      <c r="Z70">
+        <f t="shared" ref="Z70:Z76" si="4">K70-O70-Q70</f>
+        <v>3.7664124996000026E-2</v>
+      </c>
       <c r="AA70">
-        <f t="shared" ref="AA70:AA76" si="2">K70-O70</f>
+        <f t="shared" ref="AA70:AA76" si="5">K70-O70</f>
         <v>0.93401479166300005</v>
       </c>
       <c r="AB70">
-        <f t="shared" ref="AB70:AB76" si="3">G70-K70</f>
+        <f t="shared" ref="AB70:AB76" si="6">G70-K70</f>
         <v>1.0647556250000001</v>
       </c>
+      <c r="AC70">
+        <f t="shared" ref="AC70:AC76" si="7">K70-Q70</f>
+        <v>0.27922704166300005</v>
+      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26728,16 +27246,24 @@
       <c r="X71">
         <v>2.7474253522900002E-2</v>
       </c>
+      <c r="Z71">
+        <f t="shared" si="4"/>
+        <v>4.0305750002999963E-2</v>
+      </c>
       <c r="AA71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.412423458333</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.57498370833</v>
       </c>
+      <c r="AC71">
+        <f t="shared" si="7"/>
+        <v>0.45698191666999999</v>
+      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26807,16 +27333,24 @@
       <c r="X72">
         <v>1.2786068874799999E-2</v>
       </c>
+      <c r="Z72">
+        <f t="shared" si="4"/>
+        <v>4.3627166672999929E-2</v>
+      </c>
       <c r="AA72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.846499500003</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0298244999999997</v>
       </c>
+      <c r="AC72">
+        <f t="shared" si="7"/>
+        <v>0.60746983333999993</v>
+      </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26886,16 +27420,24 @@
       <c r="X73">
         <v>0.13826603146200001</v>
       </c>
+      <c r="Z73">
+        <f t="shared" si="4"/>
+        <v>4.0302999999999756E-2</v>
+      </c>
       <c r="AA73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.2473449583299998</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.5359599166700004</v>
       </c>
+      <c r="AC73">
+        <f t="shared" si="7"/>
+        <v>0.82737312499999982</v>
+      </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -26965,16 +27507,24 @@
       <c r="X74">
         <v>1.7787255933400001E-2</v>
       </c>
+      <c r="Z74">
+        <f t="shared" si="4"/>
+        <v>4.2366750000000231E-2</v>
+      </c>
       <c r="AA74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6554122500000004</v>
       </c>
       <c r="AB74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9732033749999998</v>
       </c>
+      <c r="AC74">
+        <f t="shared" si="7"/>
+        <v>0.99912612500000009</v>
+      </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -27044,16 +27594,24 @@
       <c r="X75">
         <v>1.9253364035600001E-2</v>
       </c>
+      <c r="Z75">
+        <f t="shared" si="4"/>
+        <v>4.3901750000000295E-2</v>
+      </c>
       <c r="AA75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.0224684166700002</v>
       </c>
       <c r="AB75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3685959999999993</v>
       </c>
+      <c r="AC75">
+        <f t="shared" si="7"/>
+        <v>1.1335873333300004</v>
+      </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -27123,16 +27681,24 @@
       <c r="X76">
         <v>2.4054047952400001E-2</v>
       </c>
+      <c r="Z76">
+        <f t="shared" si="4"/>
+        <v>4.3403791669999858E-2</v>
+      </c>
       <c r="AA76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.242102</v>
       </c>
       <c r="AB76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.83072120834</v>
       </c>
+      <c r="AC76">
+        <f t="shared" si="7"/>
+        <v>1.4578722499999999</v>
+      </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -27155,7 +27721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -27173,7 +27739,7 @@
         <v>1.6899920781621336</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:J88" si="4">D68*2</f>
+        <f t="shared" ref="J80:J88" si="8">D68*2</f>
         <v>4</v>
       </c>
       <c r="L80">
@@ -27194,11 +27760,11 @@
         <v>4</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F88" si="5">J81/I6*1000</f>
+        <f t="shared" ref="F81:F88" si="9">J81/I6*1000</f>
         <v>1.8621648830618647</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="L81">
@@ -27219,11 +27785,11 @@
         <v>8</v>
       </c>
       <c r="F82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.3639672295054455</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
@@ -27241,11 +27807,11 @@
         <v>16</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.6029340108276831</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
@@ -27263,11 +27829,11 @@
         <v>24</v>
       </c>
       <c r="F84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.8806065445764126</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -27285,11 +27851,11 @@
         <v>32</v>
       </c>
       <c r="F85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.2402538182176226</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
     </row>
@@ -27307,11 +27873,11 @@
         <v>40</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.517254286578078</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -27329,11 +27895,11 @@
         <v>48</v>
       </c>
       <c r="F87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.679395114240794</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
     </row>
@@ -27351,11 +27917,11 @@
         <v>56</v>
       </c>
       <c r="F88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15.810267380552402</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
     </row>
@@ -27391,7 +27957,7 @@
         <v>4</v>
       </c>
       <c r="F90">
-        <f t="shared" ref="F90:F97" si="6">J81/I15*1000</f>
+        <f t="shared" ref="F90:F97" si="10">J81/I15*1000</f>
         <v>1.8781418525311357</v>
       </c>
     </row>
@@ -27409,7 +27975,7 @@
         <v>8</v>
       </c>
       <c r="F91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3686275283853515</v>
       </c>
     </row>
@@ -27427,7 +27993,7 @@
         <v>16</v>
       </c>
       <c r="F92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.3629194344328397</v>
       </c>
     </row>
@@ -27445,7 +28011,7 @@
         <v>24</v>
       </c>
       <c r="F93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.5904058922813746</v>
       </c>
     </row>
@@ -27463,7 +28029,7 @@
         <v>32</v>
       </c>
       <c r="F94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.0240916603385699</v>
       </c>
     </row>
@@ -27481,7 +28047,7 @@
         <v>40</v>
       </c>
       <c r="F95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.6985843827245333</v>
       </c>
     </row>
@@ -27499,7 +28065,7 @@
         <v>48</v>
       </c>
       <c r="F96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.2346651051104498</v>
       </c>
     </row>
@@ -27517,7 +28083,7 @@
         <v>56</v>
       </c>
       <c r="F97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10.787205122672873</v>
       </c>
     </row>
@@ -27553,7 +28119,7 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:F106" si="7">J81/I24*1000</f>
+        <f t="shared" ref="F99:F106" si="11">J81/I24*1000</f>
         <v>1.8828642680428964</v>
       </c>
     </row>
@@ -27571,7 +28137,7 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.3493466185610132</v>
       </c>
     </row>
@@ -27589,7 +28155,7 @@
         <v>16</v>
       </c>
       <c r="F101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4525062363129204</v>
       </c>
     </row>
@@ -27607,7 +28173,7 @@
         <v>24</v>
       </c>
       <c r="F102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4554507141041872</v>
       </c>
     </row>
@@ -27625,7 +28191,7 @@
         <v>32</v>
       </c>
       <c r="F103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.7154190172211514</v>
       </c>
     </row>
@@ -27643,7 +28209,7 @@
         <v>40</v>
       </c>
       <c r="F104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.150718144388641</v>
       </c>
     </row>
@@ -27661,7 +28227,7 @@
         <v>48</v>
       </c>
       <c r="F105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.5687540236022137</v>
       </c>
     </row>
@@ -27679,7 +28245,7 @@
         <v>56</v>
       </c>
       <c r="F106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.9978613206177922</v>
       </c>
     </row>
@@ -27715,7 +28281,7 @@
         <v>4</v>
       </c>
       <c r="F108">
-        <f t="shared" ref="F108:F115" si="8">J81/I33*1000</f>
+        <f t="shared" ref="F108:F115" si="12">J81/I33*1000</f>
         <v>1.8990459272373441</v>
       </c>
     </row>
@@ -27733,7 +28299,7 @@
         <v>8</v>
       </c>
       <c r="F109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.3825759244437434</v>
       </c>
     </row>
@@ -27751,7 +28317,7 @@
         <v>16</v>
       </c>
       <c r="F110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4756651395777252</v>
       </c>
     </row>
@@ -27769,7 +28335,7 @@
         <v>24</v>
       </c>
       <c r="F111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5243519710047968</v>
       </c>
     </row>
@@ -27787,7 +28353,7 @@
         <v>32</v>
       </c>
       <c r="F112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.2560133617570797</v>
       </c>
     </row>
@@ -27805,7 +28371,7 @@
         <v>40</v>
       </c>
       <c r="F113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.2086574554495417</v>
       </c>
     </row>
@@ -27823,7 +28389,7 @@
         <v>48</v>
       </c>
       <c r="F114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.0959905189507397</v>
       </c>
     </row>
@@ -27841,7 +28407,7 @@
         <v>56</v>
       </c>
       <c r="F115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.9080198441872973</v>
       </c>
     </row>
@@ -27877,7 +28443,7 @@
         <v>4</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117:F124" si="9">J81/I42*1000</f>
+        <f t="shared" ref="F117:F124" si="13">J81/I42*1000</f>
         <v>1.8730135812980584</v>
       </c>
       <c r="X117" s="1"/>
@@ -27896,7 +28462,7 @@
         <v>8</v>
       </c>
       <c r="F118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3537416216912002</v>
       </c>
       <c r="X118" s="1"/>
@@ -27915,7 +28481,7 @@
         <v>16</v>
       </c>
       <c r="F119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.6028236645046885</v>
       </c>
       <c r="X119" s="1"/>
@@ -27934,7 +28500,7 @@
         <v>24</v>
       </c>
       <c r="F120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.7582511382517563</v>
       </c>
       <c r="X120" s="1"/>
@@ -27953,7 +28519,7 @@
         <v>32</v>
       </c>
       <c r="F121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.2615315413591848</v>
       </c>
       <c r="X121" s="1"/>
@@ -27972,7 +28538,7 @@
         <v>40</v>
       </c>
       <c r="F122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11.308579324383064</v>
       </c>
       <c r="X122" s="1"/>
@@ -27991,7 +28557,7 @@
         <v>48</v>
       </c>
       <c r="F123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13.801440165911425</v>
       </c>
       <c r="X123" s="1"/>
@@ -28010,7 +28576,7 @@
         <v>56</v>
       </c>
       <c r="F124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16.049131358684853</v>
       </c>
       <c r="X124" s="1"/>
@@ -28048,7 +28614,7 @@
         <v>4</v>
       </c>
       <c r="F126">
-        <f t="shared" ref="F126:F133" si="10">J81/I51*1000</f>
+        <f t="shared" ref="F126:F133" si="14">J81/I51*1000</f>
         <v>1.8874304993025257</v>
       </c>
     </row>
@@ -28066,7 +28632,7 @@
         <v>8</v>
       </c>
       <c r="F127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.3361643102242895</v>
       </c>
     </row>
@@ -28084,7 +28650,7 @@
         <v>16</v>
       </c>
       <c r="F128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.3124993799835107</v>
       </c>
     </row>
@@ -28102,7 +28668,7 @@
         <v>24</v>
       </c>
       <c r="F129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.5786344699634425</v>
       </c>
     </row>
@@ -28120,7 +28686,7 @@
         <v>32</v>
       </c>
       <c r="F130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0623307056846976</v>
       </c>
     </row>
@@ -28138,7 +28704,7 @@
         <v>40</v>
       </c>
       <c r="F131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.6335149473764563</v>
       </c>
     </row>
@@ -28156,7 +28722,7 @@
         <v>48</v>
       </c>
       <c r="F132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.1121362264365864</v>
       </c>
     </row>
@@ -28174,7 +28740,7 @@
         <v>56</v>
       </c>
       <c r="F133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10.556249138442595</v>
       </c>
     </row>
@@ -28210,7 +28776,7 @@
         <v>4</v>
       </c>
       <c r="F135">
-        <f t="shared" ref="F135:F142" si="11">J81/I60*1000</f>
+        <f t="shared" ref="F135:F142" si="15">J81/I60*1000</f>
         <v>1.890260531066247</v>
       </c>
     </row>
@@ -28228,7 +28794,7 @@
         <v>8</v>
       </c>
       <c r="F136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.3650883397449403</v>
       </c>
     </row>
@@ -28246,7 +28812,7 @@
         <v>16</v>
       </c>
       <c r="F137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.3201076614066642</v>
       </c>
     </row>
@@ -28264,7 +28830,7 @@
         <v>24</v>
       </c>
       <c r="F138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.3300229205423353</v>
       </c>
     </row>
@@ -28282,7 +28848,7 @@
         <v>32</v>
       </c>
       <c r="F139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.2957993554019227</v>
       </c>
     </row>
@@ -28300,7 +28866,7 @@
         <v>40</v>
       </c>
       <c r="F140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.3151330322408992</v>
       </c>
     </row>
@@ -28318,7 +28884,7 @@
         <v>48</v>
       </c>
       <c r="F141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.4150002494004044</v>
       </c>
     </row>
@@ -28336,7 +28902,7 @@
         <v>56</v>
       </c>
       <c r="F142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.5593428666193034</v>
       </c>
     </row>
@@ -28372,7 +28938,7 @@
         <v>4</v>
       </c>
       <c r="F144">
-        <f t="shared" ref="F144:F151" si="12">J81/I69*1000</f>
+        <f t="shared" ref="F144:F151" si="16">J81/I69*1000</f>
         <v>1.8040416169850517</v>
       </c>
     </row>
@@ -28390,7 +28956,7 @@
         <v>8</v>
       </c>
       <c r="F145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.2216758031165815</v>
       </c>
     </row>
@@ -28408,7 +28974,7 @@
         <v>16</v>
       </c>
       <c r="F146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.376089811023681</v>
       </c>
     </row>
@@ -28426,7 +28992,7 @@
         <v>24</v>
       </c>
       <c r="F147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.3977287563360505</v>
       </c>
     </row>
@@ -28444,7 +29010,7 @@
         <v>32</v>
       </c>
       <c r="F148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.4995889630281525</v>
       </c>
     </row>
@@ -28462,7 +29028,7 @@
         <v>40</v>
       </c>
       <c r="F149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.5065358491310379</v>
       </c>
     </row>
@@ -28480,7 +29046,7 @@
         <v>48</v>
       </c>
       <c r="F150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.3950063165868833</v>
       </c>
     </row>
@@ -28498,7 +29064,7 @@
         <v>56</v>
       </c>
       <c r="F151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.3938593672566419</v>
       </c>
     </row>
